--- a/biology/Zoologie/Eleutherodactylus_verruculatus/Eleutherodactylus_verruculatus.xlsx
+++ b/biology/Zoologie/Eleutherodactylus_verruculatus/Eleutherodactylus_verruculatus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Eleutherodactylus verruculatus est une espèce d'amphibiens de la famille des Eleutherodactylidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Eleutherodactylus verruculatus est une espèce d'amphibiens de la famille des Eleutherodactylidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique de l'État de Veracruz au Mexique[1]. Elle se rencontre à Huatusco de 195 à 900 m d'altitude.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique de l'État de Veracruz au Mexique. Elle se rencontre à Huatusco de 195 à 900 m d'altitude.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Peters, 1870 : Über neue Amphibien (Hemidactylus, Urosaura, Tropidolepisma, Geophis, Uriechis, Scaphiophis, Hoplocephalus, Rana, Entomoglossus, Cystignathus, Hylodes, Arthroleptis, Phyllobates, Cophomantis) des königlichen zoologischen Museums. Monatsberichte der Koniglich Preussischen Akademie Wissenschaften zu Berlin, vol. 1870, p. 641–652 (texte intégral).</t>
         </is>
